--- a/Extracted Excel/WHITE.xlsx
+++ b/Extracted Excel/WHITE.xlsx
@@ -997,7 +997,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
